--- a/Model/BayesLSTM/Multivariate/result/Manufacturing/AUS.xlsx
+++ b/Model/BayesLSTM/Multivariate/result/Manufacturing/AUS.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,13 +463,13 @@
         <v>1998</v>
       </c>
       <c r="B2" t="n">
-        <v>9.898494720458984</v>
+        <v>12.14599132537842</v>
       </c>
       <c r="C2" t="n">
-        <v>7.656563758850098</v>
+        <v>11.77528381347656</v>
       </c>
       <c r="D2" t="n">
-        <v>12.14042568206787</v>
+        <v>12.51669883728027</v>
       </c>
     </row>
     <row r="3">
@@ -477,13 +477,13 @@
         <v>1999</v>
       </c>
       <c r="B3" t="n">
-        <v>10.28666019439697</v>
+        <v>11.93758964538574</v>
       </c>
       <c r="C3" t="n">
-        <v>8.189573287963867</v>
+        <v>11.40507125854492</v>
       </c>
       <c r="D3" t="n">
-        <v>12.38374710083008</v>
+        <v>12.47010803222656</v>
       </c>
     </row>
     <row r="4">
@@ -491,13 +491,13 @@
         <v>2000</v>
       </c>
       <c r="B4" t="n">
-        <v>10.48203468322754</v>
+        <v>11.28434085845947</v>
       </c>
       <c r="C4" t="n">
-        <v>8.837056159973145</v>
+        <v>10.81692981719971</v>
       </c>
       <c r="D4" t="n">
-        <v>12.12701320648193</v>
+        <v>11.75175189971924</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         <v>2001</v>
       </c>
       <c r="B5" t="n">
-        <v>10.10740947723389</v>
+        <v>10.90899658203125</v>
       </c>
       <c r="C5" t="n">
-        <v>8.003880500793457</v>
+        <v>10.57950496673584</v>
       </c>
       <c r="D5" t="n">
-        <v>12.21093845367432</v>
+        <v>11.23848819732666</v>
       </c>
     </row>
     <row r="6">
@@ -519,13 +519,13 @@
         <v>2002</v>
       </c>
       <c r="B6" t="n">
-        <v>10.08138084411621</v>
+        <v>10.61094951629639</v>
       </c>
       <c r="C6" t="n">
-        <v>8.154921531677246</v>
+        <v>10.3211030960083</v>
       </c>
       <c r="D6" t="n">
-        <v>12.00784015655518</v>
+        <v>10.90079593658447</v>
       </c>
     </row>
     <row r="7">
@@ -533,13 +533,13 @@
         <v>2003</v>
       </c>
       <c r="B7" t="n">
-        <v>10.17988109588623</v>
+        <v>10.52430725097656</v>
       </c>
       <c r="C7" t="n">
-        <v>8.141481399536133</v>
+        <v>10.35415267944336</v>
       </c>
       <c r="D7" t="n">
-        <v>12.21828079223633</v>
+        <v>10.69446182250977</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         <v>2004</v>
       </c>
       <c r="B8" t="n">
-        <v>10.53414821624756</v>
+        <v>10.43940544128418</v>
       </c>
       <c r="C8" t="n">
-        <v>8.725715637207031</v>
+        <v>10.10660076141357</v>
       </c>
       <c r="D8" t="n">
-        <v>12.34258079528809</v>
+        <v>10.77221012115479</v>
       </c>
     </row>
     <row r="9">
@@ -561,13 +561,13 @@
         <v>2005</v>
       </c>
       <c r="B9" t="n">
-        <v>10.16970539093018</v>
+        <v>10.17778778076172</v>
       </c>
       <c r="C9" t="n">
-        <v>8.421667098999023</v>
+        <v>9.887530326843262</v>
       </c>
       <c r="D9" t="n">
-        <v>11.91774368286133</v>
+        <v>10.46804523468018</v>
       </c>
     </row>
     <row r="10">
@@ -575,13 +575,13 @@
         <v>2006</v>
       </c>
       <c r="B10" t="n">
-        <v>10.52246284484863</v>
+        <v>9.703990936279297</v>
       </c>
       <c r="C10" t="n">
-        <v>9.107060432434082</v>
+        <v>9.076459884643555</v>
       </c>
       <c r="D10" t="n">
-        <v>11.93786525726318</v>
+        <v>10.33152198791504</v>
       </c>
     </row>
     <row r="11">
@@ -589,13 +589,13 @@
         <v>2007</v>
       </c>
       <c r="B11" t="n">
-        <v>10.37185955047607</v>
+        <v>8.96245288848877</v>
       </c>
       <c r="C11" t="n">
-        <v>8.910494804382324</v>
+        <v>8.361563682556152</v>
       </c>
       <c r="D11" t="n">
-        <v>11.83322429656982</v>
+        <v>9.563342094421387</v>
       </c>
     </row>
     <row r="12">
@@ -603,13 +603,13 @@
         <v>2008</v>
       </c>
       <c r="B12" t="n">
-        <v>10.72538661956787</v>
+        <v>8.459413528442383</v>
       </c>
       <c r="C12" t="n">
-        <v>8.579261779785156</v>
+        <v>7.988648414611816</v>
       </c>
       <c r="D12" t="n">
-        <v>12.87151145935059</v>
+        <v>8.930178642272949</v>
       </c>
     </row>
     <row r="13">
@@ -617,13 +617,13 @@
         <v>2009</v>
       </c>
       <c r="B13" t="n">
-        <v>10.45574760437012</v>
+        <v>8.254058837890625</v>
       </c>
       <c r="C13" t="n">
-        <v>8.628086090087891</v>
+        <v>7.809144973754883</v>
       </c>
       <c r="D13" t="n">
-        <v>12.28340911865234</v>
+        <v>8.698972702026367</v>
       </c>
     </row>
     <row r="14">
@@ -631,13 +631,13 @@
         <v>2010</v>
       </c>
       <c r="B14" t="n">
-        <v>9.179874420166016</v>
+        <v>8.13848876953125</v>
       </c>
       <c r="C14" t="n">
-        <v>7.518060207366943</v>
+        <v>7.838613510131836</v>
       </c>
       <c r="D14" t="n">
-        <v>10.84168815612793</v>
+        <v>8.438364028930664</v>
       </c>
     </row>
     <row r="15">
@@ -645,13 +645,13 @@
         <v>2011</v>
       </c>
       <c r="B15" t="n">
-        <v>10.38741779327393</v>
+        <v>8.123350143432617</v>
       </c>
       <c r="C15" t="n">
-        <v>8.564144134521484</v>
+        <v>7.861506462097168</v>
       </c>
       <c r="D15" t="n">
-        <v>12.21069145202637</v>
+        <v>8.385193824768066</v>
       </c>
     </row>
     <row r="16">
@@ -659,13 +659,13 @@
         <v>2012</v>
       </c>
       <c r="B16" t="n">
-        <v>9.838210105895996</v>
+        <v>8.090032577514648</v>
       </c>
       <c r="C16" t="n">
-        <v>8.329092979431152</v>
+        <v>7.84391450881958</v>
       </c>
       <c r="D16" t="n">
-        <v>11.34732723236084</v>
+        <v>8.336151123046875</v>
       </c>
     </row>
     <row r="17">
@@ -673,13 +673,13 @@
         <v>2013</v>
       </c>
       <c r="B17" t="n">
-        <v>10.19033241271973</v>
+        <v>8.010902404785156</v>
       </c>
       <c r="C17" t="n">
-        <v>8.455710411071777</v>
+        <v>7.796109676361084</v>
       </c>
       <c r="D17" t="n">
-        <v>11.92495441436768</v>
+        <v>8.22569465637207</v>
       </c>
     </row>
     <row r="18">
@@ -687,13 +687,13 @@
         <v>2014</v>
       </c>
       <c r="B18" t="n">
-        <v>10.27549362182617</v>
+        <v>8.055482864379883</v>
       </c>
       <c r="C18" t="n">
-        <v>8.691629409790039</v>
+        <v>7.791163444519043</v>
       </c>
       <c r="D18" t="n">
-        <v>11.8593578338623</v>
+        <v>8.319802284240723</v>
       </c>
     </row>
     <row r="19">
@@ -701,13 +701,13 @@
         <v>2015</v>
       </c>
       <c r="B19" t="n">
-        <v>9.814445495605469</v>
+        <v>8.058816909790039</v>
       </c>
       <c r="C19" t="n">
-        <v>8.178586006164551</v>
+        <v>7.814061641693115</v>
       </c>
       <c r="D19" t="n">
-        <v>11.45030498504639</v>
+        <v>8.303571701049805</v>
       </c>
     </row>
     <row r="20">
@@ -715,83 +715,13 @@
         <v>2016</v>
       </c>
       <c r="B20" t="n">
-        <v>10.039963722229</v>
+        <v>8.03672981262207</v>
       </c>
       <c r="C20" t="n">
-        <v>9.190771102905273</v>
+        <v>7.790706634521484</v>
       </c>
       <c r="D20" t="n">
-        <v>10.88915634155273</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B21" t="n">
-        <v>9.589719772338867</v>
-      </c>
-      <c r="C21" t="n">
-        <v>7.075309753417969</v>
-      </c>
-      <c r="D21" t="n">
-        <v>12.10412979125977</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B22" t="n">
-        <v>10.09260845184326</v>
-      </c>
-      <c r="C22" t="n">
-        <v>8.417989730834961</v>
-      </c>
-      <c r="D22" t="n">
-        <v>11.76722717285156</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B23" t="n">
-        <v>9.683151245117188</v>
-      </c>
-      <c r="C23" t="n">
-        <v>7.92213249206543</v>
-      </c>
-      <c r="D23" t="n">
-        <v>11.44416999816895</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B24" t="n">
-        <v>10.58319091796875</v>
-      </c>
-      <c r="C24" t="n">
-        <v>8.492050170898438</v>
-      </c>
-      <c r="D24" t="n">
-        <v>12.67433166503906</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B25" t="n">
-        <v>9.56139087677002</v>
-      </c>
-      <c r="C25" t="n">
-        <v>7.321930408477783</v>
-      </c>
-      <c r="D25" t="n">
-        <v>11.80085182189941</v>
+        <v>8.282752990722656</v>
       </c>
     </row>
   </sheetData>
@@ -837,72 +767,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>10.88816080093384</v>
+        <v>8.126752853393555</v>
       </c>
       <c r="C2" t="n">
-        <v>8.98326347551035</v>
+        <v>7.909227848052979</v>
       </c>
       <c r="D2" t="n">
-        <v>12.79305812635732</v>
+        <v>8.344277381896973</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>10.90493078231811</v>
+        <v>8.03827953338623</v>
       </c>
       <c r="C3" t="n">
-        <v>9.193828583259599</v>
+        <v>7.822139263153076</v>
       </c>
       <c r="D3" t="n">
-        <v>12.61603298137663</v>
+        <v>8.254419326782227</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>9.122263717651368</v>
+        <v>8.049037933349609</v>
       </c>
       <c r="C4" t="n">
-        <v>7.477132514693395</v>
+        <v>7.859275341033936</v>
       </c>
       <c r="D4" t="n">
-        <v>10.76739492060934</v>
+        <v>8.238800048828125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>9.503062629699707</v>
+        <v>8.030755996704102</v>
       </c>
       <c r="C5" t="n">
-        <v>7.506044792818274</v>
+        <v>7.803035736083984</v>
       </c>
       <c r="D5" t="n">
-        <v>11.50008046658114</v>
+        <v>8.258476257324219</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>9.470542621612548</v>
+        <v>8.04930305480957</v>
       </c>
       <c r="C6" t="n">
-        <v>8.085438411710587</v>
+        <v>7.844225406646729</v>
       </c>
       <c r="D6" t="n">
-        <v>10.85564683151451</v>
+        <v>8.25438117980957</v>
       </c>
     </row>
   </sheetData>
@@ -951,13 +881,13 @@
         <v>1998</v>
       </c>
       <c r="B2" t="n">
-        <v>11.25667095184326</v>
+        <v>12.17159461975098</v>
       </c>
       <c r="C2" t="n">
-        <v>7.374581336975098</v>
+        <v>11.8375358581543</v>
       </c>
       <c r="D2" t="n">
-        <v>15.13876056671143</v>
+        <v>12.50565338134766</v>
       </c>
     </row>
     <row r="3">
@@ -965,13 +895,13 @@
         <v>1999</v>
       </c>
       <c r="B3" t="n">
-        <v>10.64429664611816</v>
+        <v>11.57998847961426</v>
       </c>
       <c r="C3" t="n">
-        <v>6.075417995452881</v>
+        <v>11.25606536865234</v>
       </c>
       <c r="D3" t="n">
-        <v>15.21317481994629</v>
+        <v>11.90391159057617</v>
       </c>
     </row>
     <row r="4">
@@ -979,13 +909,13 @@
         <v>2000</v>
       </c>
       <c r="B4" t="n">
-        <v>10.76655292510986</v>
+        <v>10.95681858062744</v>
       </c>
       <c r="C4" t="n">
-        <v>6.903637409210205</v>
+        <v>10.72881698608398</v>
       </c>
       <c r="D4" t="n">
-        <v>14.62946891784668</v>
+        <v>11.1848201751709</v>
       </c>
     </row>
     <row r="5">
@@ -993,13 +923,13 @@
         <v>2001</v>
       </c>
       <c r="B5" t="n">
-        <v>10.31187057495117</v>
+        <v>10.83322238922119</v>
       </c>
       <c r="C5" t="n">
-        <v>6.089835643768311</v>
+        <v>10.80496978759766</v>
       </c>
       <c r="D5" t="n">
-        <v>14.53390502929688</v>
+        <v>10.86147499084473</v>
       </c>
     </row>
     <row r="6">
@@ -1007,13 +937,13 @@
         <v>2002</v>
       </c>
       <c r="B6" t="n">
-        <v>9.991818428039551</v>
+        <v>10.80220985412598</v>
       </c>
       <c r="C6" t="n">
-        <v>6.297051429748535</v>
+        <v>10.75900840759277</v>
       </c>
       <c r="D6" t="n">
-        <v>13.68658542633057</v>
+        <v>10.84541130065918</v>
       </c>
     </row>
     <row r="7">
@@ -1021,13 +951,13 @@
         <v>2003</v>
       </c>
       <c r="B7" t="n">
-        <v>10.1845874786377</v>
+        <v>10.73826026916504</v>
       </c>
       <c r="C7" t="n">
-        <v>6.815896034240723</v>
+        <v>10.60200119018555</v>
       </c>
       <c r="D7" t="n">
-        <v>13.55327892303467</v>
+        <v>10.87451934814453</v>
       </c>
     </row>
     <row r="8">
@@ -1035,13 +965,13 @@
         <v>2004</v>
       </c>
       <c r="B8" t="n">
-        <v>10.58411979675293</v>
+        <v>10.61003303527832</v>
       </c>
       <c r="C8" t="n">
-        <v>7.932047367095947</v>
+        <v>10.39070510864258</v>
       </c>
       <c r="D8" t="n">
-        <v>13.23619270324707</v>
+        <v>10.82936096191406</v>
       </c>
     </row>
     <row r="9">
@@ -1049,13 +979,13 @@
         <v>2005</v>
       </c>
       <c r="B9" t="n">
-        <v>10.13134574890137</v>
+        <v>10.46051025390625</v>
       </c>
       <c r="C9" t="n">
-        <v>6.441961288452148</v>
+        <v>10.16181945800781</v>
       </c>
       <c r="D9" t="n">
-        <v>13.82073020935059</v>
+        <v>10.75920104980469</v>
       </c>
     </row>
     <row r="10">
@@ -1063,13 +993,13 @@
         <v>2006</v>
       </c>
       <c r="B10" t="n">
-        <v>10.61469554901123</v>
+        <v>10.28597831726074</v>
       </c>
       <c r="C10" t="n">
-        <v>8.576876640319824</v>
+        <v>9.866556167602539</v>
       </c>
       <c r="D10" t="n">
-        <v>12.65251445770264</v>
+        <v>10.70540046691895</v>
       </c>
     </row>
     <row r="11">
@@ -1077,13 +1007,13 @@
         <v>2007</v>
       </c>
       <c r="B11" t="n">
-        <v>10.96368408203125</v>
+        <v>10.12959098815918</v>
       </c>
       <c r="C11" t="n">
-        <v>9.13618278503418</v>
+        <v>9.578866004943848</v>
       </c>
       <c r="D11" t="n">
-        <v>12.79118537902832</v>
+        <v>10.68031597137451</v>
       </c>
     </row>
     <row r="12">
@@ -1091,13 +1021,13 @@
         <v>2008</v>
       </c>
       <c r="B12" t="n">
-        <v>11.08849048614502</v>
+        <v>9.875986099243164</v>
       </c>
       <c r="C12" t="n">
-        <v>7.142781257629395</v>
+        <v>9.282703399658203</v>
       </c>
       <c r="D12" t="n">
-        <v>15.03419971466064</v>
+        <v>10.46926879882812</v>
       </c>
     </row>
     <row r="13">
@@ -1105,13 +1035,13 @@
         <v>2009</v>
       </c>
       <c r="B13" t="n">
-        <v>11.80665397644043</v>
+        <v>9.613199234008789</v>
       </c>
       <c r="C13" t="n">
-        <v>7.244952201843262</v>
+        <v>9.037336349487305</v>
       </c>
       <c r="D13" t="n">
-        <v>16.36835479736328</v>
+        <v>10.18906211853027</v>
       </c>
     </row>
     <row r="14">
@@ -1119,13 +1049,13 @@
         <v>2010</v>
       </c>
       <c r="B14" t="n">
-        <v>9.706336975097656</v>
+        <v>9.362814903259277</v>
       </c>
       <c r="C14" t="n">
-        <v>6.442628860473633</v>
+        <v>8.862635612487793</v>
       </c>
       <c r="D14" t="n">
-        <v>12.97004508972168</v>
+        <v>9.862994194030762</v>
       </c>
     </row>
     <row r="15">
@@ -1133,13 +1063,13 @@
         <v>2011</v>
       </c>
       <c r="B15" t="n">
-        <v>11.44881248474121</v>
+        <v>9.237607955932617</v>
       </c>
       <c r="C15" t="n">
-        <v>7.821857452392578</v>
+        <v>8.962630271911621</v>
       </c>
       <c r="D15" t="n">
-        <v>15.07576751708984</v>
+        <v>9.512585639953613</v>
       </c>
     </row>
     <row r="16">
@@ -1147,13 +1077,13 @@
         <v>2012</v>
       </c>
       <c r="B16" t="n">
-        <v>10.87285995483398</v>
+        <v>9.142038345336914</v>
       </c>
       <c r="C16" t="n">
-        <v>7.329381942749023</v>
+        <v>8.965004920959473</v>
       </c>
       <c r="D16" t="n">
-        <v>14.41633796691895</v>
+        <v>9.319071769714355</v>
       </c>
     </row>
     <row r="17">
@@ -1161,13 +1091,13 @@
         <v>2013</v>
       </c>
       <c r="B17" t="n">
-        <v>9.632734298706055</v>
+        <v>9.098061561584473</v>
       </c>
       <c r="C17" t="n">
-        <v>5.533973217010498</v>
+        <v>9.036975860595703</v>
       </c>
       <c r="D17" t="n">
-        <v>13.73149490356445</v>
+        <v>9.159147262573242</v>
       </c>
     </row>
     <row r="18">
@@ -1175,13 +1105,13 @@
         <v>2014</v>
       </c>
       <c r="B18" t="n">
-        <v>10.56441116333008</v>
+        <v>9.067766189575195</v>
       </c>
       <c r="C18" t="n">
-        <v>7.522049903869629</v>
+        <v>8.996817588806152</v>
       </c>
       <c r="D18" t="n">
-        <v>13.60677242279053</v>
+        <v>9.138714790344238</v>
       </c>
     </row>
     <row r="19">
@@ -1189,13 +1119,13 @@
         <v>2015</v>
       </c>
       <c r="B19" t="n">
-        <v>11.05025768280029</v>
+        <v>9.075724601745605</v>
       </c>
       <c r="C19" t="n">
-        <v>8.245591163635254</v>
+        <v>8.981662750244141</v>
       </c>
       <c r="D19" t="n">
-        <v>13.85492420196533</v>
+        <v>9.16978645324707</v>
       </c>
     </row>
     <row r="20">
@@ -1203,13 +1133,13 @@
         <v>2016</v>
       </c>
       <c r="B20" t="n">
-        <v>11.10158061981201</v>
+        <v>9.066671371459961</v>
       </c>
       <c r="C20" t="n">
-        <v>8.75917911529541</v>
+        <v>8.998376846313477</v>
       </c>
       <c r="D20" t="n">
-        <v>13.44398212432861</v>
+        <v>9.134965896606445</v>
       </c>
     </row>
     <row r="21">
@@ -1217,13 +1147,13 @@
         <v>2017</v>
       </c>
       <c r="B21" t="n">
-        <v>9.497386932373047</v>
+        <v>9.03135871887207</v>
       </c>
       <c r="C21" t="n">
-        <v>6.493072986602783</v>
+        <v>8.939699172973633</v>
       </c>
       <c r="D21" t="n">
-        <v>12.50170135498047</v>
+        <v>9.123018264770508</v>
       </c>
     </row>
     <row r="22">
@@ -1231,13 +1161,13 @@
         <v>2018</v>
       </c>
       <c r="B22" t="n">
-        <v>11.44251251220703</v>
+        <v>9.041896820068359</v>
       </c>
       <c r="C22" t="n">
-        <v>7.422458171844482</v>
+        <v>8.967338562011719</v>
       </c>
       <c r="D22" t="n">
-        <v>15.46256637573242</v>
+        <v>9.116455078125</v>
       </c>
     </row>
     <row r="23">
@@ -1245,13 +1175,13 @@
         <v>2019</v>
       </c>
       <c r="B23" t="n">
-        <v>10.13024139404297</v>
+        <v>9.060486793518066</v>
       </c>
       <c r="C23" t="n">
-        <v>5.968111038208008</v>
+        <v>8.932598114013672</v>
       </c>
       <c r="D23" t="n">
-        <v>14.29237174987793</v>
+        <v>9.188375473022461</v>
       </c>
     </row>
     <row r="24">
@@ -1259,13 +1189,13 @@
         <v>2020</v>
       </c>
       <c r="B24" t="n">
-        <v>10.94276523590088</v>
+        <v>9.077718734741211</v>
       </c>
       <c r="C24" t="n">
-        <v>8.293484687805176</v>
+        <v>9.013799667358398</v>
       </c>
       <c r="D24" t="n">
-        <v>13.59204578399658</v>
+        <v>9.141637802124023</v>
       </c>
     </row>
     <row r="25">
@@ -1273,13 +1203,13 @@
         <v>2021</v>
       </c>
       <c r="B25" t="n">
-        <v>9.847082138061523</v>
+        <v>9.071719169616699</v>
       </c>
       <c r="C25" t="n">
-        <v>5.011480808258057</v>
+        <v>8.984963417053223</v>
       </c>
       <c r="D25" t="n">
-        <v>14.68268394470215</v>
+        <v>9.158474922180176</v>
       </c>
     </row>
   </sheetData>
@@ -1328,13 +1258,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>10.41902875900269</v>
+        <v>13.0162109375</v>
       </c>
       <c r="C2" t="n">
-        <v>8.254112687088872</v>
+        <v>12.7607038074824</v>
       </c>
       <c r="D2" t="n">
-        <v>12.5839448309165</v>
+        <v>13.2717180675176</v>
       </c>
     </row>
     <row r="3">
@@ -1342,13 +1272,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>8.66596336364746</v>
+        <v>12.95023212432861</v>
       </c>
       <c r="C3" t="n">
-        <v>6.848174893470747</v>
+        <v>12.74809368353202</v>
       </c>
       <c r="D3" t="n">
-        <v>10.48375183382417</v>
+        <v>13.15237056512521</v>
       </c>
     </row>
     <row r="4">
@@ -1356,13 +1286,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>10.04116582870483</v>
+        <v>12.49156436920166</v>
       </c>
       <c r="C4" t="n">
-        <v>8.987560540214766</v>
+        <v>12.22268993414441</v>
       </c>
       <c r="D4" t="n">
-        <v>11.0947711171949</v>
+        <v>12.76043880425891</v>
       </c>
     </row>
     <row r="5">
@@ -1370,13 +1300,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>8.134392261505127</v>
+        <v>12.08195457458496</v>
       </c>
       <c r="C5" t="n">
-        <v>6.42178065202984</v>
+        <v>11.6354462820934</v>
       </c>
       <c r="D5" t="n">
-        <v>9.847003870980414</v>
+        <v>12.52846286707652</v>
       </c>
     </row>
     <row r="6">
@@ -1384,13 +1314,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>11.12475147247314</v>
+        <v>12.22219743728638</v>
       </c>
       <c r="C6" t="n">
-        <v>8.1839433939243</v>
+        <v>11.97574131396661</v>
       </c>
       <c r="D6" t="n">
-        <v>14.06555955102199</v>
+        <v>12.46865356060614</v>
       </c>
     </row>
   </sheetData>
